--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>154.222993274272</v>
+        <v>170.055555</v>
       </c>
       <c r="H2">
-        <v>154.222993274272</v>
+        <v>510.166665</v>
       </c>
       <c r="I2">
-        <v>0.5642253372122537</v>
+        <v>0.5874625966152389</v>
       </c>
       <c r="J2">
-        <v>0.5642253372122537</v>
+        <v>0.587462596615239</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>6798.305398233051</v>
+        <v>7815.160437450085</v>
       </c>
       <c r="R2">
-        <v>6798.305398233051</v>
+        <v>70336.44393705076</v>
       </c>
       <c r="S2">
-        <v>0.3450020572716334</v>
+        <v>0.3635916956656268</v>
       </c>
       <c r="T2">
-        <v>0.3450020572716334</v>
+        <v>0.3635916956656269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>154.222993274272</v>
+        <v>170.055555</v>
       </c>
       <c r="H3">
-        <v>154.222993274272</v>
+        <v>510.166665</v>
       </c>
       <c r="I3">
-        <v>0.5642253372122537</v>
+        <v>0.5874625966152389</v>
       </c>
       <c r="J3">
-        <v>0.5642253372122537</v>
+        <v>0.587462596615239</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>1017.527349894268</v>
+        <v>1164.86604034264</v>
       </c>
       <c r="R3">
-        <v>1017.527349894268</v>
+        <v>10483.79436308376</v>
       </c>
       <c r="S3">
-        <v>0.05163772565070657</v>
+        <v>0.05419410416731961</v>
       </c>
       <c r="T3">
-        <v>0.05163772565070657</v>
+        <v>0.05419410416731961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>154.222993274272</v>
+        <v>170.055555</v>
       </c>
       <c r="H4">
-        <v>154.222993274272</v>
+        <v>510.166665</v>
       </c>
       <c r="I4">
-        <v>0.5642253372122537</v>
+        <v>0.5874625966152389</v>
       </c>
       <c r="J4">
-        <v>0.5642253372122537</v>
+        <v>0.587462596615239</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>3302.292709222846</v>
+        <v>3647.089317974189</v>
       </c>
       <c r="R4">
-        <v>3302.292709222846</v>
+        <v>32823.80386176771</v>
       </c>
       <c r="S4">
-        <v>0.1675855542899136</v>
+        <v>0.1696767967822925</v>
       </c>
       <c r="T4">
-        <v>0.1675855542899136</v>
+        <v>0.1696767967822925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.7477030299537</v>
+        <v>69.750951</v>
       </c>
       <c r="H5">
-        <v>69.7477030299537</v>
+        <v>209.252853</v>
       </c>
       <c r="I5">
-        <v>0.2551722050412364</v>
+        <v>0.2409569907365996</v>
       </c>
       <c r="J5">
-        <v>0.2551722050412364</v>
+        <v>0.2409569907365995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>3074.549235207925</v>
+        <v>3205.510532894497</v>
       </c>
       <c r="R5">
-        <v>3074.549235207925</v>
+        <v>28849.59479605047</v>
       </c>
       <c r="S5">
-        <v>0.1560279730306548</v>
+        <v>0.1491328321993366</v>
       </c>
       <c r="T5">
-        <v>0.1560279730306548</v>
+        <v>0.1491328321993366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.7477030299537</v>
+        <v>69.750951</v>
       </c>
       <c r="H6">
-        <v>69.7477030299537</v>
+        <v>209.252853</v>
       </c>
       <c r="I6">
-        <v>0.2551722050412364</v>
+        <v>0.2409569907365996</v>
       </c>
       <c r="J6">
-        <v>0.2551722050412364</v>
+        <v>0.2409569907365995</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>460.179081721407</v>
+        <v>477.788062268848</v>
       </c>
       <c r="R6">
-        <v>460.179081721407</v>
+        <v>4300.092560419632</v>
       </c>
       <c r="S6">
-        <v>0.02335328006131067</v>
+        <v>0.02222856115616809</v>
       </c>
       <c r="T6">
-        <v>0.02335328006131067</v>
+        <v>0.02222856115616808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.7477030299537</v>
+        <v>69.750951</v>
       </c>
       <c r="H7">
-        <v>69.7477030299537</v>
+        <v>209.252853</v>
       </c>
       <c r="I7">
-        <v>0.2551722050412364</v>
+        <v>0.2409569907365996</v>
       </c>
       <c r="J7">
-        <v>0.2551722050412364</v>
+        <v>0.2409569907365995</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q7">
-        <v>1493.469464642276</v>
+        <v>1495.910841081558</v>
       </c>
       <c r="R7">
-        <v>1493.469464642276</v>
+        <v>13463.19756973402</v>
       </c>
       <c r="S7">
-        <v>0.07579095194927092</v>
+        <v>0.06959559738109491</v>
       </c>
       <c r="T7">
-        <v>0.07579095194927092</v>
+        <v>0.0695955973810949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.3651202620117</v>
+        <v>49.66818733333334</v>
       </c>
       <c r="H8">
-        <v>49.3651202620117</v>
+        <v>149.004562</v>
       </c>
       <c r="I8">
-        <v>0.18060245774651</v>
+        <v>0.1715804126481615</v>
       </c>
       <c r="J8">
-        <v>0.18060245774651</v>
+        <v>0.1715804126481615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N8">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q8">
-        <v>2176.064388562504</v>
+        <v>2282.576729982894</v>
       </c>
       <c r="R8">
-        <v>2176.064388562504</v>
+        <v>20543.19056984604</v>
       </c>
       <c r="S8">
-        <v>0.1104314453135233</v>
+        <v>0.1061943577977484</v>
       </c>
       <c r="T8">
-        <v>0.1104314453135233</v>
+        <v>0.1061943577977484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.3651202620117</v>
+        <v>49.66818733333334</v>
       </c>
       <c r="H9">
-        <v>49.3651202620117</v>
+        <v>149.004562</v>
       </c>
       <c r="I9">
-        <v>0.18060245774651</v>
+        <v>0.1715804126481615</v>
       </c>
       <c r="J9">
-        <v>0.18060245774651</v>
+        <v>0.1715804126481615</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q9">
-        <v>325.6995531664098</v>
+        <v>340.2228448813476</v>
       </c>
       <c r="R9">
-        <v>325.6995531664098</v>
+        <v>3062.005603932128</v>
       </c>
       <c r="S9">
-        <v>0.01652868020963996</v>
+        <v>0.01582849156644493</v>
       </c>
       <c r="T9">
-        <v>0.01652868020963996</v>
+        <v>0.01582849156644493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.3651202620117</v>
+        <v>49.66818733333334</v>
       </c>
       <c r="H10">
-        <v>49.3651202620117</v>
+        <v>149.004562</v>
       </c>
       <c r="I10">
-        <v>0.18060245774651</v>
+        <v>0.1715804126481615</v>
       </c>
       <c r="J10">
-        <v>0.18060245774651</v>
+        <v>0.1715804126481615</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q10">
-        <v>1057.028354009684</v>
+        <v>1065.206693580465</v>
       </c>
       <c r="R10">
-        <v>1057.028354009684</v>
+        <v>9586.860242224187</v>
       </c>
       <c r="S10">
-        <v>0.0536423322233468</v>
+        <v>0.04955756328396821</v>
       </c>
       <c r="T10">
-        <v>0.0536423322233468</v>
+        <v>0.0495575632839682</v>
       </c>
     </row>
   </sheetData>
